--- a/Vroom Virtusa/Chart Designs & Summaries.xlsx
+++ b/Vroom Virtusa/Chart Designs & Summaries.xlsx
@@ -1,15 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dileepsathyan/Documents/GitHub/Assignments/Vroom Virtusa/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1053C7-B915-2943-A481-8E98E19FC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25220" windowHeight="17860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -310,8 +330,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +394,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,9 +480,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,6 +532,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,14 +725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>65138</v>
       </c>
@@ -717,7 +783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4190</v>
       </c>
@@ -740,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>37116</v>
       </c>
@@ -766,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6935</v>
       </c>
@@ -783,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2149.457901257215</v>
+        <v>2149.4579012572149</v>
       </c>
       <c r="G5" t="s">
         <v>94</v>
@@ -792,7 +858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>29497</v>
       </c>
@@ -809,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>705.0362848507964</v>
+        <v>705.03628485079639</v>
       </c>
       <c r="G6" t="s">
         <v>94</v>
@@ -818,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44485</v>
       </c>
@@ -835,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>482.114220660204</v>
+        <v>482.11422066020401</v>
       </c>
       <c r="G7" t="s">
         <v>94</v>
@@ -844,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42278</v>
       </c>
@@ -861,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2797.550352838847</v>
+        <v>2797.5503528388472</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -870,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>25037</v>
       </c>
@@ -887,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2337.572390401728</v>
+        <v>2337.5723904017282</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
@@ -896,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>68046</v>
       </c>
@@ -922,7 +988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>31235</v>
       </c>
@@ -939,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1394.864155129798</v>
+        <v>1394.8641551297981</v>
       </c>
       <c r="G11" t="s">
         <v>94</v>
@@ -948,7 +1014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -965,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>6443.56078858426</v>
+        <v>6443.5607885842601</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
@@ -974,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>65253</v>
       </c>
@@ -991,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>4565.637815279629</v>
+        <v>4565.6378152796287</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
@@ -1000,7 +1066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>66466</v>
       </c>
@@ -1026,7 +1092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>22436</v>
       </c>
@@ -1043,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2448.232902800777</v>
+        <v>2448.2329028007771</v>
       </c>
       <c r="G15" t="s">
         <v>94</v>
@@ -1052,7 +1118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>49546</v>
       </c>
@@ -1069,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2322.610505928848</v>
+        <v>2322.6105059288479</v>
       </c>
       <c r="G16" t="s">
         <v>94</v>
@@ -1078,7 +1144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>47089</v>
       </c>
@@ -1101,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45275</v>
       </c>
@@ -1118,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4601.204058701132</v>
+        <v>4601.2040587011325</v>
       </c>
       <c r="G18" t="s">
         <v>94</v>
@@ -1127,7 +1193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>50224</v>
       </c>
@@ -1153,7 +1219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5387</v>
       </c>
@@ -1170,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1711.593302884569</v>
+        <v>1711.5933028845691</v>
       </c>
       <c r="G20" t="s">
         <v>94</v>
@@ -1179,7 +1245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>35841</v>
       </c>
@@ -1202,7 +1268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41428</v>
       </c>
@@ -1228,7 +1294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>68129</v>
       </c>
@@ -1245,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>845.3421026126697</v>
+        <v>845.34210261266969</v>
       </c>
       <c r="G23" t="s">
         <v>94</v>
@@ -1254,7 +1320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>33810</v>
       </c>
@@ -1271,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>858.1436232715583</v>
+        <v>858.14362327155834</v>
       </c>
       <c r="G24" t="s">
         <v>94</v>
@@ -1280,7 +1346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4200</v>
       </c>
@@ -1303,7 +1369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10256</v>
       </c>
@@ -1329,7 +1395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44942</v>
       </c>
@@ -1346,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2665.903616923396</v>
+        <v>2665.9036169233959</v>
       </c>
       <c r="G27" t="s">
         <v>94</v>
@@ -1355,7 +1421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>22389</v>
       </c>
@@ -1372,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2275.95743820202</v>
+        <v>2275.9574382020201</v>
       </c>
       <c r="G28" t="s">
         <v>94</v>
@@ -1381,7 +1447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>10571</v>
       </c>
@@ -1407,7 +1473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40070</v>
       </c>
@@ -1433,7 +1499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>17327</v>
       </c>
@@ -1450,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>5468.482457540625</v>
+        <v>5468.4824575406246</v>
       </c>
       <c r="G31" t="s">
         <v>94</v>
@@ -1459,7 +1525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41931</v>
       </c>
@@ -1485,7 +1551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>22828</v>
       </c>
@@ -1511,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>49553</v>
       </c>
@@ -1534,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>7079</v>
       </c>
@@ -1551,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>753.111455497661</v>
+        <v>753.11145549766104</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -1560,7 +1626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>12309</v>
       </c>
@@ -1577,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>776.2913988681455</v>
+        <v>776.29139886814551</v>
       </c>
       <c r="G36" t="s">
         <v>94</v>
@@ -1586,7 +1652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>65145</v>
       </c>
@@ -1609,7 +1675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2473</v>
       </c>
@@ -1635,7 +1701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42026</v>
       </c>
@@ -1652,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>338.9497665064413</v>
+        <v>338.94976650644128</v>
       </c>
       <c r="G39" t="s">
         <v>94</v>
@@ -1661,7 +1727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>66701</v>
       </c>
@@ -1678,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>267.9280189302389</v>
+        <v>267.92801893023892</v>
       </c>
       <c r="G40" t="s">
         <v>94</v>
@@ -1687,7 +1753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>64004</v>
       </c>
@@ -1713,7 +1779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>11837</v>
       </c>
@@ -1736,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>30640</v>
       </c>
@@ -1753,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>590.8612130639845</v>
+        <v>590.86121306398445</v>
       </c>
       <c r="G43" t="s">
         <v>94</v>
@@ -1762,7 +1828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53546</v>
       </c>
@@ -1779,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>426.4180571337787</v>
+        <v>426.41805713377869</v>
       </c>
       <c r="G44" t="s">
         <v>94</v>
@@ -1788,7 +1854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>6717</v>
       </c>
@@ -1805,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>208.3067761077965</v>
+        <v>208.30677610779651</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
@@ -1814,7 +1880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>3439</v>
       </c>
@@ -1831,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>255.5664235207849</v>
+        <v>255.56642352078489</v>
       </c>
       <c r="G46" t="s">
         <v>94</v>
@@ -1840,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>17878</v>
       </c>
@@ -1863,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>68272</v>
       </c>
@@ -1889,7 +1955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34891</v>
       </c>
@@ -1915,7 +1981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>65266</v>
       </c>
@@ -1932,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>3901.943605810039</v>
+        <v>3901.9436058100391</v>
       </c>
       <c r="G50" t="s">
         <v>94</v>
@@ -1941,7 +2007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44659</v>
       </c>
@@ -1958,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>6744.52697417342</v>
+        <v>6744.5269741734201</v>
       </c>
       <c r="G51" t="s">
         <v>94</v>
@@ -1967,7 +2033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>21254</v>
       </c>
@@ -1984,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>7491.346792321518</v>
+        <v>7491.3467923215176</v>
       </c>
       <c r="G52" t="s">
         <v>94</v>
@@ -1993,7 +2059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>48523</v>
       </c>
@@ -2016,7 +2082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>62715</v>
       </c>
@@ -2033,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2027.564350238583</v>
+        <v>2027.5643502385831</v>
       </c>
       <c r="G54" t="s">
         <v>94</v>
@@ -2042,7 +2108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>50784</v>
       </c>
@@ -2068,7 +2134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>945</v>
       </c>
@@ -2085,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>2277.424543271303</v>
+        <v>2277.4245432713028</v>
       </c>
       <c r="G56" t="s">
         <v>94</v>
@@ -2094,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>25301</v>
       </c>
@@ -2117,7 +2183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>38368</v>
       </c>
@@ -2134,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1085.351345635508</v>
+        <v>1085.3513456355081</v>
       </c>
       <c r="G58" t="s">
         <v>94</v>
@@ -2143,7 +2209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44156</v>
       </c>
@@ -2160,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>3243.619834684831</v>
+        <v>3243.6198346848309</v>
       </c>
       <c r="G59" t="s">
         <v>94</v>
@@ -2169,7 +2235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>25840</v>
       </c>
@@ -2186,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>5356.153125108008</v>
+        <v>5356.1531251080078</v>
       </c>
       <c r="G60" t="s">
         <v>94</v>
@@ -2195,7 +2261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40942</v>
       </c>
@@ -2212,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1698.987629889419</v>
+        <v>1698.9876298894189</v>
       </c>
       <c r="G61" t="s">
         <v>94</v>
@@ -2221,7 +2287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>59606</v>
       </c>
@@ -2244,7 +2310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>52080</v>
       </c>
@@ -2270,7 +2336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>49430</v>
       </c>
@@ -2293,7 +2359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>16257</v>
       </c>
@@ -2316,7 +2382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>57145</v>
       </c>
@@ -2342,7 +2408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>7395</v>
       </c>
@@ -2359,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>2899.072336785491</v>
+        <v>2899.0723367854912</v>
       </c>
       <c r="G67" t="s">
         <v>94</v>
@@ -2368,7 +2434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>3508</v>
       </c>
@@ -2385,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>2713.335811298021</v>
+        <v>2713.3358112980209</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -2394,7 +2460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40939</v>
       </c>
@@ -2417,7 +2483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>54018</v>
       </c>
@@ -2434,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>2328.085773198389</v>
+        <v>2328.0857731983888</v>
       </c>
       <c r="G70" t="s">
         <v>94</v>
@@ -2443,7 +2509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>20170</v>
       </c>
@@ -2469,7 +2535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>29574</v>
       </c>
@@ -2492,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>20875</v>
       </c>
@@ -2509,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>2233.250449642542</v>
+        <v>2233.2504496425422</v>
       </c>
       <c r="G73" t="s">
         <v>94</v>
@@ -2518,7 +2584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>48094</v>
       </c>
@@ -2544,7 +2610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>23017</v>
       </c>
@@ -2561,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1204.333745393171</v>
+        <v>1204.3337453931711</v>
       </c>
       <c r="G75" t="s">
         <v>94</v>
@@ -2570,7 +2636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>37402</v>
       </c>
@@ -2593,7 +2659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>18471</v>
       </c>
@@ -2619,7 +2685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>46560</v>
       </c>
@@ -2645,7 +2711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>24822</v>
       </c>
@@ -2662,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1865.546639688405</v>
+        <v>1865.5466396884051</v>
       </c>
       <c r="G79" t="s">
         <v>94</v>
@@ -2671,7 +2737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>39506</v>
       </c>
@@ -2697,7 +2763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>58101</v>
       </c>
@@ -2723,7 +2789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>910</v>
       </c>
@@ -2746,7 +2812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>12998</v>
       </c>
@@ -2763,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1713.088605229606</v>
+        <v>1713.0886052296059</v>
       </c>
       <c r="G83" t="s">
         <v>94</v>
@@ -2772,7 +2838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1117</v>
       </c>
@@ -2789,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>2421.849407920498</v>
+        <v>2421.8494079204979</v>
       </c>
       <c r="G84" t="s">
         <v>94</v>
@@ -2798,7 +2864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>25977</v>
       </c>
@@ -2821,7 +2887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44971</v>
       </c>
@@ -2838,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1581.137131134123</v>
+        <v>1581.1371311341229</v>
       </c>
       <c r="G86" t="s">
         <v>94</v>
@@ -2847,7 +2913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>32327</v>
       </c>
@@ -2864,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>3701.876663161115</v>
+        <v>3701.8766631611152</v>
       </c>
       <c r="G87" t="s">
         <v>94</v>
@@ -2873,7 +2939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>15102</v>
       </c>
@@ -2896,7 +2962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>7298</v>
       </c>
@@ -2913,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1832.598364778188</v>
+        <v>1832.5983647781879</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -2922,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>26123</v>
       </c>
@@ -2939,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1300.207808550787</v>
+        <v>1300.2078085507869</v>
       </c>
       <c r="G90" t="s">
         <v>94</v>
@@ -2948,7 +3014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>10787</v>
       </c>
@@ -2974,7 +3040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>19814</v>
       </c>
@@ -2997,7 +3063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>41735</v>
       </c>
@@ -3023,7 +3089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45716</v>
       </c>
@@ -3046,7 +3112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>4625</v>
       </c>
@@ -3063,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>355.3134646422067</v>
+        <v>355.31346464220672</v>
       </c>
       <c r="G95" t="s">
         <v>94</v>
@@ -3072,7 +3138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>63249</v>
       </c>
@@ -3095,7 +3161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>39447</v>
       </c>
@@ -3112,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>4845.42912687378</v>
+        <v>4845.4291268737798</v>
       </c>
       <c r="G97" t="s">
         <v>94</v>
@@ -3121,7 +3187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>14707</v>
       </c>
@@ -3147,7 +3213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>30413</v>
       </c>
@@ -3164,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1859.521960081643</v>
+        <v>1859.5219600816431</v>
       </c>
       <c r="G99" t="s">
         <v>94</v>
@@ -3173,7 +3239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>25248</v>
       </c>
@@ -3199,7 +3265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>39014</v>
       </c>
@@ -3222,7 +3288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>13728</v>
       </c>
@@ -3248,7 +3314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>50475</v>
       </c>
@@ -3265,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>7314.080000000001</v>
+        <v>7314.0800000000008</v>
       </c>
       <c r="G103" t="s">
         <v>94</v>
@@ -3274,7 +3340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>17366</v>
       </c>
@@ -3291,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>11524.04890652178</v>
+        <v>11524.048906521781</v>
       </c>
       <c r="G104" t="s">
         <v>94</v>
@@ -3300,7 +3366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>51479</v>
       </c>
@@ -3317,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>375.1000297991163</v>
+        <v>375.10002979911633</v>
       </c>
       <c r="G105" t="s">
         <v>94</v>
@@ -3326,7 +3392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>4509</v>
       </c>
@@ -3343,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>382.6265304516036</v>
+        <v>382.62653045160363</v>
       </c>
       <c r="G106" t="s">
         <v>94</v>
@@ -3352,7 +3418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35187</v>
       </c>
@@ -3369,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1669.908338072753</v>
+        <v>1669.9083380727529</v>
       </c>
       <c r="G107" t="s">
         <v>94</v>
@@ -3378,7 +3444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35470</v>
       </c>
@@ -3395,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2355.513186379567</v>
+        <v>2355.5131863795668</v>
       </c>
       <c r="G108" t="s">
         <v>94</v>
@@ -3404,7 +3470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>70280</v>
       </c>
@@ -3430,7 +3496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>55086</v>
       </c>
@@ -3456,7 +3522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>21868</v>
       </c>
@@ -3479,7 +3545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>28610</v>
       </c>
@@ -3496,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>9849.955568636378</v>
+        <v>9849.9555686363783</v>
       </c>
       <c r="G112" t="s">
         <v>94</v>
@@ -3505,7 +3571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>46592</v>
       </c>
@@ -3522,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>3845.179244253072</v>
+        <v>3845.1792442530718</v>
       </c>
       <c r="G113" t="s">
         <v>94</v>
@@ -3531,7 +3597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>13167</v>
       </c>
@@ -3548,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>3376.714871130437</v>
+        <v>3376.7148711304371</v>
       </c>
       <c r="G114" t="s">
         <v>94</v>
@@ -3557,7 +3623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>54948</v>
       </c>
@@ -3583,7 +3649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>65671</v>
       </c>
@@ -3600,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>4865.752465188951</v>
+        <v>4865.7524651889507</v>
       </c>
       <c r="G116" t="s">
         <v>94</v>
@@ -3609,7 +3675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>62961</v>
       </c>
@@ -3632,7 +3698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>37179</v>
       </c>
@@ -3649,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>4405.248018242615</v>
+        <v>4405.2480182426152</v>
       </c>
       <c r="G118" t="s">
         <v>94</v>
@@ -3658,7 +3724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>50631</v>
       </c>
@@ -3684,7 +3750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>58122</v>
       </c>
@@ -3707,7 +3773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>50929</v>
       </c>
@@ -3724,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>2755.24592612868</v>
+        <v>2755.2459261286799</v>
       </c>
       <c r="G121" t="s">
         <v>94</v>
@@ -3733,7 +3799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>63477</v>
       </c>
@@ -3759,7 +3825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>16219</v>
       </c>
@@ -3782,7 +3848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>39330</v>
       </c>
@@ -3799,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>4002.384451123171</v>
+        <v>4002.3844511231709</v>
       </c>
       <c r="G124" t="s">
         <v>94</v>
@@ -3808,7 +3874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>35552</v>
       </c>
@@ -3825,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>3400.523143144058</v>
+        <v>3400.5231431440579</v>
       </c>
       <c r="G125" t="s">
         <v>94</v>
@@ -3834,7 +3900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>25298</v>
       </c>
@@ -3857,7 +3923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>47025</v>
       </c>
@@ -3874,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1340.808305182482</v>
+        <v>1340.8083051824819</v>
       </c>
       <c r="G127" t="s">
         <v>94</v>
@@ -3883,7 +3949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>19072</v>
       </c>
@@ -3909,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>38964</v>
       </c>
@@ -3935,7 +4001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>30443</v>
       </c>
@@ -3952,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>4401.995994851991</v>
+        <v>4401.9959948519909</v>
       </c>
       <c r="G130" t="s">
         <v>94</v>
@@ -3961,7 +4027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43610</v>
       </c>
@@ -3978,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>2945.057562903652</v>
+        <v>2945.0575629036521</v>
       </c>
       <c r="G131" t="s">
         <v>94</v>
@@ -3987,7 +4053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>32403</v>
       </c>
@@ -4004,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1699.318082891404</v>
+        <v>1699.3180828914039</v>
       </c>
       <c r="G132" t="s">
         <v>94</v>
@@ -4013,7 +4079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>64138</v>
       </c>
@@ -4039,7 +4105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>17342</v>
       </c>
@@ -4065,7 +4131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>10558</v>
       </c>
@@ -4088,7 +4154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>58944</v>
       </c>
@@ -4105,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>6247.68353863376</v>
+        <v>6247.6835386337598</v>
       </c>
       <c r="G136" t="s">
         <v>96</v>
@@ -4114,7 +4180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>5407</v>
       </c>
@@ -4131,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1469.176904659331</v>
+        <v>1469.1769046593311</v>
       </c>
       <c r="G137" t="s">
         <v>94</v>
@@ -4140,7 +4206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>21321</v>
       </c>
@@ -4166,7 +4232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>31471</v>
       </c>
@@ -4183,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>3064.990231451885</v>
+        <v>3064.9902314518849</v>
       </c>
       <c r="G139" t="s">
         <v>94</v>
@@ -4192,7 +4258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>58126</v>
       </c>
@@ -4218,7 +4284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>24812</v>
       </c>
@@ -4235,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>3480.023299703836</v>
+        <v>3480.0232997038361</v>
       </c>
       <c r="G141" t="s">
         <v>94</v>
@@ -4244,7 +4310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>25658</v>
       </c>
@@ -4261,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>3642.164224400318</v>
+        <v>3642.1642244003178</v>
       </c>
       <c r="G142" t="s">
         <v>94</v>
@@ -4270,7 +4336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>56005</v>
       </c>
@@ -4287,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>3520.396503706823</v>
+        <v>3520.3965037068228</v>
       </c>
       <c r="G143" t="s">
         <v>94</v>
@@ -4296,7 +4362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>20940</v>
       </c>
@@ -4313,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>2872.911232569195</v>
+        <v>2872.9112325691949</v>
       </c>
       <c r="G144" t="s">
         <v>94</v>
@@ -4322,7 +4388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>18876</v>
       </c>
@@ -4348,7 +4414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>6384</v>
       </c>
@@ -4365,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>10550.00519521648</v>
+        <v>10550.005195216479</v>
       </c>
       <c r="G146" t="s">
         <v>94</v>
@@ -4374,7 +4440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>67</v>
       </c>
@@ -4391,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>4417.32549698969</v>
+        <v>4417.3254969896898</v>
       </c>
       <c r="G147" t="s">
         <v>94</v>
@@ -4400,7 +4466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>35339</v>
       </c>
@@ -4417,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>4263.761904998953</v>
+        <v>4263.7619049989526</v>
       </c>
       <c r="G148" t="s">
         <v>94</v>
@@ -4426,7 +4492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45651</v>
       </c>
@@ -4443,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>5236.356620245688</v>
+        <v>5236.3566202456877</v>
       </c>
       <c r="G149" t="s">
         <v>94</v>
@@ -4452,7 +4518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>54174</v>
       </c>
@@ -4469,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>7875.98938198594</v>
+        <v>7875.9893819859399</v>
       </c>
       <c r="G150" t="s">
         <v>94</v>
@@ -4478,7 +4544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43533</v>
       </c>
@@ -4495,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1587.019776950266</v>
+        <v>1587.0197769502661</v>
       </c>
       <c r="G151" t="s">
         <v>94</v>
@@ -4504,7 +4570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>55147</v>
       </c>
@@ -4521,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1063.161127407133</v>
+        <v>1063.1611274071331</v>
       </c>
       <c r="G152" t="s">
         <v>94</v>
@@ -4530,7 +4596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>5837</v>
       </c>
@@ -4547,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>668.7217664008774</v>
+        <v>668.72176640087741</v>
       </c>
       <c r="G153" t="s">
         <v>94</v>
@@ -4556,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>9110</v>
       </c>
@@ -4573,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>682.2376661805854</v>
+        <v>682.23766618058539</v>
       </c>
       <c r="G154" t="s">
         <v>94</v>
@@ -4582,7 +4648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>8853</v>
       </c>
@@ -4599,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>2557.602521819328</v>
+        <v>2557.6025218193281</v>
       </c>
       <c r="G155" t="s">
         <v>94</v>
@@ -4608,7 +4674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>18083</v>
       </c>
@@ -4631,7 +4697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>60487</v>
       </c>
@@ -4648,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>2777.330008912094</v>
+        <v>2777.3300089120939</v>
       </c>
       <c r="G157" t="s">
         <v>94</v>
@@ -4657,7 +4723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>29905</v>
       </c>
@@ -4674,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>2613.900574631546</v>
+        <v>2613.9005746315461</v>
       </c>
       <c r="G158" t="s">
         <v>94</v>
@@ -4683,7 +4749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>49360</v>
       </c>
@@ -4700,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>717.393317758142</v>
+        <v>717.39331775814196</v>
       </c>
       <c r="G159" t="s">
         <v>94</v>
@@ -4709,7 +4775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>67748</v>
       </c>
@@ -4726,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>712.7006647372888</v>
+        <v>712.70066473728878</v>
       </c>
       <c r="G160" t="s">
         <v>94</v>
@@ -4735,7 +4801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>50546</v>
       </c>
@@ -4758,7 +4824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>14069</v>
       </c>
@@ -4784,7 +4850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>7443</v>
       </c>
@@ -4801,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>2570.424716704876</v>
+        <v>2570.4247167048761</v>
       </c>
       <c r="G163" t="s">
         <v>94</v>
@@ -4810,7 +4876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>9475</v>
       </c>
@@ -4833,7 +4899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>52756</v>
       </c>
@@ -4850,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>3670.984106828587</v>
+        <v>3670.9841068285868</v>
       </c>
       <c r="G165" t="s">
         <v>94</v>
@@ -4859,7 +4925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>14327</v>
       </c>
@@ -4876,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>4165.959875298928</v>
+        <v>4165.9598752989277</v>
       </c>
       <c r="G166" t="s">
         <v>94</v>
@@ -4885,7 +4951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>57858</v>
       </c>
@@ -4908,7 +4974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>13403</v>
       </c>
@@ -4925,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1385.112832103482</v>
+        <v>1385.1128321034821</v>
       </c>
       <c r="G168" t="s">
         <v>94</v>
@@ -4934,7 +5000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>26341</v>
       </c>
@@ -4951,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1343.953977627989</v>
+        <v>1343.9539776279889</v>
       </c>
       <c r="G169" t="s">
         <v>94</v>
@@ -4960,7 +5026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>58828</v>
       </c>
@@ -4977,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1464.064657589923</v>
+        <v>1464.0646575899229</v>
       </c>
       <c r="G170" t="s">
         <v>94</v>
@@ -4986,7 +5052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>51587</v>
       </c>
@@ -5012,7 +5078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>22320</v>
       </c>
@@ -5029,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>1383.946975868865</v>
+        <v>1383.9469758688649</v>
       </c>
       <c r="G172" t="s">
         <v>94</v>
@@ -5038,7 +5104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>40460</v>
       </c>
@@ -5055,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="F173">
-        <v>4346.397651468033</v>
+        <v>4346.3976514680326</v>
       </c>
       <c r="G173" t="s">
         <v>94</v>
@@ -5064,7 +5130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>24225</v>
       </c>
@@ -5090,7 +5156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37280</v>
       </c>
@@ -5116,7 +5182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>19849</v>
       </c>
@@ -5145,4 +5211,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABE1B8-B6C1-6B49-923A-915F725C54B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>